--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC56-TORNILLOS CANULADOS 6.5 TITANIO.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC56-TORNILLOS CANULADOS 6.5 TITANIO.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136DA06-0330-4001-A826-762BD908F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="4" r:id="rId1"/>
     <sheet name="ADICIONAL" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,12 +37,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -137,12 +138,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -167,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -306,9 +307,6 @@
     <t>BROCA CANULADO  4.5 MM</t>
   </si>
   <si>
-    <t>DESTORNILLADOR HEXAGONAL CANULADO DE PUNTA</t>
-  </si>
-  <si>
     <t>DESTORNILLADOR HEXAGONAL CANULADO CON CAMISA</t>
   </si>
   <si>
@@ -438,9 +436,6 @@
     <t>BROCA CANULADO CON TOPE 4.5 MM</t>
   </si>
   <si>
-    <t>GUIAS ROSCADAS</t>
-  </si>
-  <si>
     <t>OBSERVACIONES</t>
   </si>
   <si>
@@ -592,12 +587,18 @@
   </si>
   <si>
     <t>RETIRAR LAS PIEZAS DEL MOTOR DE SU CONTENEDOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESTORNILLADOR HEXAGONAL CANULADO MANGO MADERA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIAS ROSCADAS 1.8MM </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-[$$-300A]\ * #,##0.00_ ;_-[$$-300A]\ * \-#,##0.00\ ;_-[$$-300A]\ * &quot;-&quot;??_ ;_-@_ "/>
@@ -1339,10 +1340,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda 3 2" xfId="4"/>
+    <cellStyle name="Moneda 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1751,27 +1752,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="1"/>
+    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="2"/>
       <c r="C1" s="13"/>
@@ -1780,215 +1781,215 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56"/>
       <c r="B2" s="57"/>
       <c r="C2" s="87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="90"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
-    <row r="3" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="88"/>
       <c r="D3" s="61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
     </row>
-    <row r="4" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="94"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
     </row>
-    <row r="5" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="92"/>
       <c r="D5" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
     </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
     </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="41">
         <v>45015</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="67">
         <v>20230300236</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="68"/>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="86"/>
       <c r="C11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>95</v>
-      </c>
       <c r="E11" s="69" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="41">
         <v>45007</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="35"/>
     </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="70"/>
       <c r="D21" s="27"/>
       <c r="E21" s="38"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
@@ -1997,7 +1998,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -2006,12 +2007,12 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>2</v>
@@ -2020,24 +2021,24 @@
         <v>0</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4">
         <v>200114110</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -2051,15 +2052,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
@@ -2073,15 +2074,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -2095,15 +2096,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4">
         <v>3</v>
@@ -2117,15 +2118,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4">
         <v>3</v>
@@ -2139,7 +2140,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>6</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>190703806</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -2161,7 +2162,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>7</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>190703804</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="4">
         <v>3</v>
@@ -2183,7 +2184,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>8</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>200114130</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4">
         <v>3</v>
@@ -2205,7 +2206,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>9</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>200114131</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
@@ -2227,7 +2228,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>10</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>200114132</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="4">
         <v>3</v>
@@ -2249,7 +2250,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>11</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>200114133</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4">
         <v>3</v>
@@ -2271,7 +2272,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>12</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>200114134</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" s="4">
         <v>3</v>
@@ -2293,7 +2294,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>13</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>200114135</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4">
         <v>3</v>
@@ -2315,7 +2316,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>14</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>200114123</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4">
         <v>4</v>
@@ -2337,7 +2338,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
         <v>15</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>200114124</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
@@ -2359,7 +2360,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
         <v>16</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>200114125</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
@@ -2381,7 +2382,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="52" t="s">
         <v>17</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>200114126</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
@@ -2403,7 +2404,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
       <c r="B42" s="53"/>
       <c r="C42" s="51"/>
@@ -2415,15 +2416,15 @@
       <c r="F42" s="73"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="53">
         <v>210228152</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="4">
         <v>5</v>
@@ -2437,71 +2438,71 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G44" s="75">
         <f>SUM(G26:G43)</f>
         <v>9036</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
       <c r="F45" s="74" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G45" s="76">
         <f>+G44*0.12</f>
         <v>1084.32</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G46" s="76">
         <f>+G44+G45</f>
         <v>10120.32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="49"/>
       <c r="C49" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="48"/>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>18</v>
       </c>
@@ -2510,32 +2511,32 @@
       </c>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E51" s="7"/>
     </row>
-    <row r="52" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="5">
         <v>1</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="5">
         <v>1</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" s="7"/>
     </row>
-    <row r="54" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="18">
         <f>SUM(B52:B53)</f>
         <v>2</v>
@@ -2543,75 +2544,75 @@
       <c r="C54" s="71"/>
       <c r="E54" s="7"/>
     </row>
-    <row r="55" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <v>1</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="4">
         <v>1</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="5">
         <v>1</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="5">
         <v>2</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="5">
         <v>1</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="50">
         <v>7</v>
       </c>
       <c r="C62" s="6"/>
       <c r="E62" s="20"/>
     </row>
-    <row r="63" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="5">
         <v>1</v>
       </c>
@@ -2619,15 +2620,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="5">
         <v>1</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="5">
         <v>1</v>
       </c>
@@ -2635,251 +2636,251 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="5">
         <v>1</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="5">
         <v>0</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="5">
         <v>1</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="5">
         <v>1</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="5">
         <v>1</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="5">
         <v>1</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="5">
         <v>10</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="50">
         <f>SUM(B64:B74)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="77"/>
     </row>
-    <row r="77" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="50"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="50"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="50"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="50"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="50"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="50"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" s="79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="80"/>
       <c r="C84" s="79" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="80"/>
       <c r="C85" s="79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="80"/>
       <c r="C86" s="79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="80"/>
       <c r="C87" s="79" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="80"/>
       <c r="C88" s="79"/>
     </row>
-    <row r="89" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C89" s="82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="81"/>
       <c r="C90" s="82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="81"/>
       <c r="C91" s="82" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="83"/>
       <c r="C92" s="84"/>
     </row>
-    <row r="93" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="83"/>
       <c r="C93" s="84"/>
     </row>
-    <row r="94" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94"/>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="2:3" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:5" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C97" s="54"/>
     </row>
-    <row r="98" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
     </row>
-    <row r="99" spans="1:5" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
     </row>
-    <row r="100" spans="1:5" s="45" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:5" s="45" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C100" s="54"/>
     </row>
-    <row r="101" spans="1:5" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:5" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:5" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103"/>
       <c r="C103"/>
     </row>
-    <row r="104" spans="1:5" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B104"/>
       <c r="C104"/>
     </row>
-    <row r="105" spans="1:5" s="45" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:5" s="45" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C105" s="54"/>
     </row>
-    <row r="106" spans="1:5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
     </row>
-    <row r="107" spans="1:5" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="108" spans="1:5" s="45" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:5" s="45" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C108" s="54"/>
     </row>
-    <row r="109" spans="1:5" s="45" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" s="45" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109"/>
       <c r="C109"/>
     </row>
-    <row r="110" spans="1:5" s="46" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110"/>
       <c r="C110"/>
     </row>
-    <row r="111" spans="1:5" s="46" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:5" s="46" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C111" s="54"/>
     </row>
@@ -2904,30 +2905,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="89.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" style="1"/>
-    <col min="9" max="9" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.453125" style="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="89.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="2"/>
       <c r="C1" s="13"/>
@@ -2936,78 +2937,78 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56"/>
       <c r="B2" s="57"/>
       <c r="C2" s="87" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D2" s="89" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="90"/>
       <c r="F2" s="58"/>
       <c r="G2" s="58"/>
     </row>
-    <row r="3" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="88"/>
       <c r="D3" s="61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="62"/>
       <c r="F3" s="58"/>
       <c r="G3" s="58"/>
     </row>
-    <row r="4" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="94"/>
       <c r="F4" s="58"/>
       <c r="G4" s="58"/>
     </row>
-    <row r="5" spans="1:16" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="92"/>
       <c r="D5" s="95" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="96"/>
       <c r="F5" s="65"/>
       <c r="G5" s="65"/>
     </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="41">
         <v>45015</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="67">
         <v>20230300236</v>
       </c>
       <c r="H7" s="55"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -3015,23 +3016,23 @@
       <c r="E8" s="24"/>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="68"/>
       <c r="H9" s="55"/>
       <c r="O9" s="97"/>
       <c r="P9" s="97"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3040,24 +3041,24 @@
       <c r="O10" s="97"/>
       <c r="P10" s="97"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" s="86"/>
       <c r="C11" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>95</v>
-      </c>
       <c r="E11" s="69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -3066,24 +3067,24 @@
       <c r="O12" s="29"/>
       <c r="P12" s="29"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="30"/>
       <c r="C13" s="33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O13" s="29"/>
       <c r="P13" s="29"/>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -3092,24 +3093,24 @@
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="30"/>
       <c r="C15" s="41">
         <v>45007</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O15" s="29"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -3118,20 +3119,20 @@
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="25"/>
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
     </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -3140,21 +3141,21 @@
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E19" s="35"/>
       <c r="H19" s="23"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
     </row>
-    <row r="20" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
@@ -3164,9 +3165,9 @@
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="30"/>
       <c r="C21" s="70"/>
@@ -3176,7 +3177,7 @@
       <c r="O21" s="36"/>
       <c r="P21" s="36"/>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="1"/>
@@ -3188,7 +3189,7 @@
       <c r="O22" s="37"/>
       <c r="P22" s="37"/>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="39"/>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -3200,12 +3201,12 @@
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>2</v>
@@ -3214,26 +3215,26 @@
         <v>0</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F24" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
     </row>
-    <row r="25" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4">
         <v>200114110</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -3247,15 +3248,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
@@ -3269,15 +3270,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D27" s="4">
         <v>0</v>
@@ -3291,15 +3292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
@@ -3313,15 +3314,15 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4">
         <v>4</v>
@@ -3335,7 +3336,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="52" t="s">
         <v>6</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>190703806</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
@@ -3357,7 +3358,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="52" t="s">
         <v>7</v>
       </c>
@@ -3365,7 +3366,7 @@
         <v>190703804</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="4">
         <v>4</v>
@@ -3379,7 +3380,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="52" t="s">
         <v>8</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>200114130</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D32" s="4">
         <v>4</v>
@@ -3401,7 +3402,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="52" t="s">
         <v>9</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>200114131</v>
       </c>
       <c r="C33" s="51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D33" s="4">
         <v>4</v>
@@ -3423,7 +3424,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52" t="s">
         <v>10</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>200114132</v>
       </c>
       <c r="C34" s="51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D34" s="4">
         <v>4</v>
@@ -3445,7 +3446,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52" t="s">
         <v>11</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>200114133</v>
       </c>
       <c r="C35" s="51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="4">
         <v>4</v>
@@ -3467,7 +3468,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="52" t="s">
         <v>12</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>200114134</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
@@ -3489,7 +3490,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="52" t="s">
         <v>13</v>
       </c>
@@ -3497,7 +3498,7 @@
         <v>200114135</v>
       </c>
       <c r="C37" s="51" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
@@ -3511,7 +3512,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="52" t="s">
         <v>14</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>200114123</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="4">
         <v>4</v>
@@ -3533,7 +3534,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="52" t="s">
         <v>15</v>
       </c>
@@ -3541,7 +3542,7 @@
         <v>200114124</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
@@ -3555,7 +3556,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="52" t="s">
         <v>16</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>200114125</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
@@ -3577,7 +3578,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="52" t="s">
         <v>17</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>200114126</v>
       </c>
       <c r="C41" s="51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" s="4">
         <v>4</v>
@@ -3599,7 +3600,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
       <c r="B42" s="53"/>
       <c r="C42" s="51"/>
@@ -3611,15 +3612,15 @@
       <c r="F42" s="99"/>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" s="53">
         <v>210228152</v>
       </c>
       <c r="C43" s="51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="4">
         <v>6</v>
@@ -3633,42 +3634,42 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="14">
         <f>SUM(G25:G43)</f>
         <v>10768</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
       <c r="F45" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="14">
         <f>+G44*0.12</f>
         <v>1292.1599999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
       <c r="F46" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G46" s="14">
         <f>+G44+G45</f>
